--- a/FrontEnd/public/templateFiles/新建用户模板.xlsx
+++ b/FrontEnd/public/templateFiles/新建用户模板.xlsx
@@ -977,7 +977,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C2" sqref="C2 C2:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1012,7 +1012,7 @@
       <formula1>"普通用户,管理员"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>"物资管理部门,采购部门,审批部门"</formula1>
+      <formula1>"物资管理部门,采购部门,审批部门,外联部门"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
